--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="进度" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -47,14 +47,19 @@
 2.完成用户的User关联角色role一对一的查询
 3.上传代码</t>
   </si>
+  <si>
+    <t>1.解决User和Role联合查询，roleid为null的问题
+2.完成联合查询所有学校以及专业
+3.完成学生信息和学校专业的联合查询</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -87,6 +92,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -94,16 +145,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,61 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,8 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,31 +208,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,168 +245,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,18 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,50 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -558,6 +519,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,6 +557,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,7 +1084,9 @@
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.33333333333333" style="1"/>
-    <col min="3" max="5" width="38.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
@@ -1128,7 +1135,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="62.4" spans="2:5">
+    <row r="6" ht="46.8" spans="2:5">
       <c r="B6" s="6">
         <v>43802</v>
       </c>
@@ -1138,12 +1145,14 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" ht="46.8" spans="2:5">
       <c r="B7" s="6">
         <v>43803</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -52,6 +52,9 @@
 2.完成联合查询所有学校以及专业
 3.完成学生信息和学校专业的联合查询</t>
   </si>
+  <si>
+    <t>查询所有老师信息,联合查询学校信息</t>
+  </si>
 </sst>
 </file>
 
@@ -59,8 +62,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -92,6 +95,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -107,24 +178,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +210,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -139,36 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,60 +238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,13 +248,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,24 +398,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,25 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,109 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,17 +483,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,37 +550,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,15 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,7 +1171,9 @@
         <v>43805</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -53,7 +53,8 @@
 3.完成学生信息和学校专业的联合查询</t>
   </si>
   <si>
-    <t>查询所有老师信息,联合查询学校信息</t>
+    <t>1.查询所有老师信息,联合查询学校信息
+2.更新数据库表设计，工程实体，完成User联合查询Userinfor,Userinfo联合查询学校及专业</t>
   </si>
 </sst>
 </file>
@@ -62,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -95,40 +96,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,15 +113,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +180,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,8 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,16 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,34 +233,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,25 +249,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,25 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,114 +430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,8 +487,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +538,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,43 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1081,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1166,12 +1167,12 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" ht="46.8" spans="2:5">
       <c r="B9" s="6">
         <v>43805</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7"/>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -54,7 +54,9 @@
   </si>
   <si>
     <t>1.查询所有老师信息,联合查询学校信息
-2.更新数据库表设计，工程实体，完成User联合查询Userinfor,Userinfo联合查询学校及专业</t>
+2.更新数据库表设计，工程实体，完成User联合查询Userinfor,Userinfo联合查询学校及专业
+3.更新数据库所有id由String类型，同时更改对应代码
+待与团队讨论的问题：userinfoid在用户注册的时候自动生成？后面怎样与userinfo主键表映射呢？添加外键约束？</t>
   </si>
 </sst>
 </file>
@@ -64,8 +66,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -96,6 +98,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -104,6 +120,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -119,60 +195,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +229,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,44 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,67 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,115 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,16 +525,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -552,22 +554,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -576,8 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1083,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1167,7 +1169,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="46.8" spans="2:5">
+    <row r="9" ht="124.8" spans="2:5">
       <c r="B9" s="6">
         <v>43805</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -58,16 +58,20 @@
 3.更新数据库所有id由String类型，同时更改对应代码
 待与团队讨论的问题：userinfoid在用户注册的时候自动生成？后面怎样与userinfo主键表映射呢？添加外键约束？</t>
   </si>
+  <si>
+    <t>1. 完成按id查询user方法
+2.完成查询所有summary感想总结</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -99,7 +103,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,117 +176,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,6 +199,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,12 +255,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,169 +369,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +500,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -511,21 +545,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -536,6 +555,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,30 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,8 +1086,8 @@
   <sheetPr/>
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1179,12 +1183,14 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" ht="31.2" spans="2:5">
       <c r="B10" s="6">
         <v>43806</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -60,7 +60,9 @@
   </si>
   <si>
     <t>1. 完成按id查询user方法
-2.完成查询所有summary感想总结</t>
+2.完成查询所有summary感想总结
+3.实现按userid查询、按content内容模糊查询summary
+问题：如何实现按时间段来查询？begintime和endtime这两个字段在页面中传过来的，在model中没有这两个字段</t>
   </si>
 </sst>
 </file>
@@ -69,9 +71,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -117,6 +119,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -132,6 +189,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -140,55 +204,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,39 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,115 +257,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,66 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,16 +502,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,21 +532,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -559,11 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +580,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,145 +597,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1089,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1183,7 +1185,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="31.2" spans="2:5">
+    <row r="10" ht="124.8" spans="2:5">
       <c r="B10" s="6">
         <v>43806</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -61,8 +61,12 @@
   <si>
     <t>1. 完成按id查询user方法
 2.完成查询所有summary感想总结
-3.实现按userid查询、按content内容模糊查询summary
+3.实现动态查询summary：按userid查询、按content内容模糊查询
 问题：如何实现按时间段来查询？begintime和endtime这两个字段在页面中传过来的，在model中没有这两个字段</t>
+  </si>
+  <si>
+    <t>1.完成按id查询summary接口
+2.完成feedback查询接口</t>
   </si>
 </sst>
 </file>
@@ -70,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -118,6 +122,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -125,128 +251,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,45 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,6 +528,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,17 +573,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1195,12 +1199,14 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" ht="31.2" spans="2:5">
       <c r="B11" s="6">
         <v>43807</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -66,7 +66,8 @@
   </si>
   <si>
     <t>1.完成按id查询summary接口
-2.完成feedback查询接口</t>
+2.完成feedback查询接口
+3.完成User修改，删除接口</t>
   </si>
 </sst>
 </file>
@@ -74,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -123,44 +124,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,19 +145,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,42 +222,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,13 +262,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +352,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,151 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +521,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +562,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,26 +571,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,7 +605,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,130 +617,130 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1094,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" ht="31.2" spans="2:5">
+    <row r="11" ht="46.8" spans="2:5">
       <c r="B11" s="6">
         <v>43807</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -68,6 +68,12 @@
     <t>1.完成按id查询summary接口
 2.完成feedback查询接口
 3.完成User修改，删除接口</t>
+  </si>
+  <si>
+    <t>1.完成role表的增删改查功能</t>
+  </si>
+  <si>
+    <t>1.完成loger表的增删查功能</t>
   </si>
 </sst>
 </file>
@@ -75,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -110,21 +116,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,37 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -184,7 +223,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,56 +237,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,12 +268,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,168 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,8 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,41 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,8 +565,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +620,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,119 +638,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1091,16 +1100,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33333333333333" style="1"/>
+    <col min="2" max="2" width="10.6666666666667" style="1"/>
     <col min="3" max="3" width="38.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.2222222222222" style="1" customWidth="1"/>
@@ -1215,8 +1224,20 @@
         <v>43808</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="6">
+        <v>43809</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -73,7 +73,8 @@
     <t>1.完成role表的增删改查功能</t>
   </si>
   <si>
-    <t>1.完成loger表的增删查功能</t>
+    <t>1.完成loger表的增删查功能
+2.完成Userinfo的增删查改功能</t>
   </si>
 </sst>
 </file>
@@ -750,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +781,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1229,12 +1233,12 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" ht="31.2" spans="2:5">
       <c r="B13" s="6">
         <v>43809</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="9"/>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -74,7 +74,9 @@
   </si>
   <si>
     <t>1.完成loger表的增删查功能
-2.完成Userinfo的增删查改功能</t>
+2.完成Userinfo的增删查改功能
+3.完成School表的增删查改功能
+4.完成Major表的增删查改功能</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="31.2" spans="2:5">
+    <row r="13" ht="62.4" spans="2:5">
       <c r="B13" s="6">
         <v>43809</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -76,7 +76,8 @@
     <t>1.完成loger表的增删查功能
 2.完成Userinfo的增删查改功能
 3.完成School表的增删查改功能
-4.完成Major表的增删查改功能</t>
+4.完成Major表的增删查改功能
+5.完成Summary表的增删查改功能</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1110,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="62.4" spans="2:5">
+    <row r="13" ht="78" spans="2:5">
       <c r="B13" s="6">
         <v>43809</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -77,7 +77,8 @@
 2.完成Userinfo的增删查改功能
 3.完成School表的增删查改功能
 4.完成Major表的增删查改功能
-5.完成Summary表的增删查改功能</t>
+5.完成Summary表的增删查改功能
+6.完成Feedback表的增删功能</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="78" spans="2:5">
+    <row r="13" ht="93.6" spans="2:5">
       <c r="B13" s="6">
         <v>43809</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -78,7 +78,8 @@
 3.完成School表的增删查改功能
 4.完成Major表的增删查改功能
 5.完成Summary表的增删查改功能
-6.完成Feedback表的增删功能</t>
+6.完成Feedback表的增删功能
+7.完成Label表的增删改功能</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1238,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="93.6" spans="2:5">
+    <row r="13" ht="109.2" spans="2:5">
       <c r="B13" s="6">
         <v>43809</v>
       </c>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -81,16 +81,19 @@
 6.完成Feedback表的增删功能
 7.完成Label表的增删改功能</t>
   </si>
+  <si>
+    <t>1.添加允许全局跨域设置</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -122,59 +125,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,9 +171,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +193,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -243,6 +215,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -250,16 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,15 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -537,17 +531,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -606,6 +589,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,137 +629,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +792,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1248,6 +1257,16 @@
       </c>
       <c r="E13" s="9"/>
     </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="11">
+        <v>43812</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="进度" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -84,16 +84,34 @@
   <si>
     <t>1.添加允许全局跨域设置</t>
   </si>
+  <si>
+    <t>1.添加user表分页查询</t>
+  </si>
+  <si>
+    <t>1.添加user表模糊查询
+2.添加school表分页及模糊查询</t>
+  </si>
+  <si>
+    <t>1.完成小程序注册登录功能</t>
+  </si>
+  <si>
+    <t>完成用户信息页面功能</t>
+  </si>
+  <si>
+    <t>发表说说getallsummary要带上评论内容
+发表说说getsummarybyid要带上评论内容
+更改密码接口</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -132,6 +150,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -140,7 +204,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,19 +232,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,38 +255,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,36 +281,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,50 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,13 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +592,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,8 +814,8 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1199,73 +1217,131 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" ht="124.8" spans="2:5">
       <c r="B8" s="6">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" ht="124.8" spans="2:5">
       <c r="B9" s="6">
-        <v>43805</v>
+        <v>43806</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="124.8" spans="2:5">
+    <row r="10" ht="46.8" spans="2:5">
       <c r="B10" s="6">
-        <v>43806</v>
+        <v>43807</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" ht="46.8" spans="2:5">
+    <row r="11" spans="2:5">
       <c r="B11" s="6">
-        <v>43807</v>
+        <v>43808</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" ht="109.2" spans="2:5">
       <c r="B12" s="6">
-        <v>43808</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="109.2" spans="2:5">
-      <c r="B13" s="6">
         <v>43809</v>
       </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="11">
+        <v>43812</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="11">
-        <v>43812</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>43824</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" ht="31.2" spans="2:5">
+      <c r="B15" s="11">
+        <v>43825</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="11">
+        <v>43828</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="11">
+        <v>43830</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="46.8" spans="2:5">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -95,10 +95,61 @@
     <t>1.完成小程序注册登录功能</t>
   </si>
   <si>
-    <t>完成用户信息页面功能</t>
-  </si>
-  <si>
-    <t>发表说说getallsummary要带上评论内容
+    <t>完成用户信息页面功能
+完成更新getAllSummary接口附带查询出评论</t>
+  </si>
+  <si>
+    <t>小程序端：
+1.完成用户注册功能，成功则跳转到登录页面，失败提示用户失败信息
+2.更新登录功能，判断userinfoid是否存在，存在则跳转到主页，否则跳转到完善个人信息界面
+后台服务端：
+1.更新getSummaryByid接口带上评论内容
+2.新增getSummaryByuserid接口带上评论内容
+3.完成更改密码uptPwdByusername接口
+4.完成判断用户是否存在selUserinfoidByusername接口
+5.更新addUserinfo接口，返回userinfo主键id
+6.更新注册addUser接口</t>
+  </si>
+  <si>
+    <t>更新userinfo信息，
+回填user 的userinfoid
+不嵌套</t>
+  </si>
+  <si>
+    <t>小程序端用户写完UserInfo表基本信息后，返回主键id，来更新User表的userinfoid即，User userinfoid = UserInfo id，调用adduserinfoid方法，http://localhost:8081/api/user/adduserinfoid?id=6&amp;userinfoid=6</t>
+  </si>
+  <si>
+    <r>
+      <t>添加更换密码方法：
+1.判断用户是否存在
+select userinfoid from user where username = #{username}
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断是不是本人，填写姓名、性别、qq号、学校、专业等，暂时不做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*) from userinfo where userinfoid=#{userinfoid} and name=#{name} and qq=#{qq} and schid=#{schid} and majid=#{majid}
+3.更改密码
+update user set password=#{password} where username=#{username}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>发表说说getallsummary要带上评论内容--&gt;OK
 发表说说getsummarybyid要带上评论内容
 更改密码接口</t>
   </si>
@@ -108,12 +159,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +194,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +208,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,126 +337,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -295,13 +352,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,169 +490,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,45 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,11 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +643,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -627,6 +660,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,16 +704,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,119 +722,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +872,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1136,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1307,41 +1367,54 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" ht="31.2" spans="2:5">
       <c r="B17" s="11">
         <v>43830</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="46.8" spans="2:5">
-      <c r="B18" s="9"/>
+    <row r="18" ht="202.8" spans="2:5">
+      <c r="B18" s="11">
+        <v>43831</v>
+      </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" ht="93.6" spans="2:5">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="234" spans="2:5">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
+    </row>
+    <row r="23" ht="46.8" spans="4:4">
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -117,6 +117,11 @@
   </si>
   <si>
     <t>小程序端用户写完UserInfo表基本信息后，返回主键id，来更新User表的userinfoid即，User userinfoid = UserInfo id，调用adduserinfoid方法，http://localhost:8081/api/user/adduserinfoid?id=6&amp;userinfoid=6</t>
+  </si>
+  <si>
+    <t>1.重新写接口：更新userinfo image的接口，目前的更新方法包含所有字段（http://120.24.74.223:8081/api/userinfo/uptUserinfo?id=1&amp;image=QQQQ），不适合。
+2.添加七牛云接口：参考F:\Study\springboot\getStaticResDemo\src\main\java\com\example\getStaticResDemo\controller\UploadDemo.java
+3.修改发表说说接口，添加最新排序，减少输出字段，最好添加一个新的接口</t>
   </si>
   <si>
     <r>
@@ -142,10 +147,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-select count(*) from userinfo where userinfoid=#{userinfoid} and name=#{name} and qq=#{qq} and schid=#{schid} and majid=#{majid}
-3.更改密码
-update user set password=#{password} where username=#{username}
-</t>
+select count(*) from userinfo where userinfoid=#{userinfoid} and name=#{name} and qq=#{qq} and schid=#{schid} and majid=#{majid}</t>
     </r>
   </si>
   <si>
@@ -161,8 +163,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -194,6 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,19 +210,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -221,41 +255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,8 +278,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -284,56 +333,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,25 +354,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,31 +486,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,103 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,8 +607,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,26 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,26 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,31 +694,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,116 +727,116 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,9 +872,6 @@
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1196,20 +1195,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E23"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6666666666667" style="1"/>
     <col min="3" max="3" width="38.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+    <col min="5" max="5" width="47" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="5" customHeight="1"/>
@@ -1387,33 +1387,32 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="93.6" spans="2:5">
+    <row r="19" ht="78" spans="2:5">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="234" spans="2:5">
-      <c r="B20" s="9"/>
+    <row r="20" ht="171.6" spans="2:6">
+      <c r="B20" s="11">
+        <v>43835</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="23" ht="46.8" spans="4:4">
-      <c r="D23" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="46.8" spans="4:4">
+      <c r="D22" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/学生画像系统开发进度.xlsx
+++ b/doc/学生画像系统开发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>学生画像系统开发进度</t>
   </si>
@@ -119,9 +119,13 @@
     <t>小程序端用户写完UserInfo表基本信息后，返回主键id，来更新User表的userinfoid即，User userinfoid = UserInfo id，调用adduserinfoid方法，http://localhost:8081/api/user/adduserinfoid?id=6&amp;userinfoid=6</t>
   </si>
   <si>
+    <t>1.修改查询说说接口getAllSummary，带上按发表时间降序排序
+2.添加一个新的接口getAllSimpleSummary，查询说说功能，只附带查询必要的信息、带分页查询和按发表时间降序排序</t>
+  </si>
+  <si>
     <t>1.重新写接口：更新userinfo image的接口，目前的更新方法包含所有字段（http://120.24.74.223:8081/api/userinfo/uptUserinfo?id=1&amp;image=QQQQ），不适合。
 2.添加七牛云接口：参考F:\Study\springboot\getStaticResDemo\src\main\java\com\example\getStaticResDemo\controller\UploadDemo.java
-3.修改发表说说接口，添加最新排序，减少输出字段，最好添加一个新的接口</t>
+3.修改发表说说接口，添加最新排序，减少输出字段，带分页功能，最好添加一个新的接口</t>
   </si>
   <si>
     <r>
@@ -836,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +876,9 @@
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1198,7 +1205,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1402,17 +1409,19 @@
         <v>43835</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="46.8" spans="4:4">
-      <c r="D22" s="12" t="s">
-        <v>26</v>
+      <c r="D22" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
